--- a/excel/download.xlsx
+++ b/excel/download.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -41,412 +41,307 @@
     <t>장소</t>
   </si>
   <si>
-    <t>[플본] GUI파트</t>
-  </si>
-  <si>
-    <t>11.06 (월)</t>
+    <t>[플본] FE파트</t>
+  </si>
+  <si>
+    <t>11.20 (월)</t>
+  </si>
+  <si>
+    <t>09:00 ~ 09:30</t>
+  </si>
+  <si>
+    <t>[자바메타] 어드민 주문 변경내역 추가 개발</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>김석진</t>
+  </si>
+  <si>
+    <t>[FE] 자바메타 vee-validate 일정정리</t>
+  </si>
+  <si>
+    <t>함준태</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 레이아웃 비율 개선</t>
+  </si>
+  <si>
+    <t>정재원</t>
+  </si>
+  <si>
+    <t>[FE] 일정 정리</t>
+  </si>
+  <si>
+    <t>김태이</t>
+  </si>
+  <si>
+    <t>[자바메타] QA 이슈 대응</t>
+  </si>
+  <si>
+    <t>김승우</t>
   </si>
   <si>
     <t>09:30 ~ 10:00</t>
   </si>
   <si>
-    <t>[GUI] 이행과제 보고</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>진란</t>
-  </si>
-  <si>
-    <t>09:30 ~ 10:30</t>
-  </si>
-  <si>
-    <t>[GUI]이행과제 보고서 수정</t>
-  </si>
-  <si>
-    <t>도진회</t>
-  </si>
-  <si>
-    <t>09:30 ~ 12:00</t>
-  </si>
-  <si>
-    <t>[희망스튜디오]이슈 확인 및 최종산출물 현행화</t>
-  </si>
-  <si>
-    <t>김다혜</t>
-  </si>
-  <si>
-    <t>[희망스튜디오]디자인 현행화</t>
-  </si>
-  <si>
-    <t>이선민</t>
-  </si>
-  <si>
-    <t>10:00 ~ 11:00</t>
-  </si>
-  <si>
-    <t>[GUI] 프로그램 셋팅</t>
-  </si>
-  <si>
-    <t>10:30 ~ 11:30</t>
-  </si>
-  <si>
-    <t>본부 주간회의+이행과제 보고(10월)</t>
+    <t>[FE] 데일리 미팅</t>
+  </si>
+  <si>
+    <t>김승우, 정재원, 함준태, 김태이, 김석진</t>
+  </si>
+  <si>
+    <t>10:00 ~ 12:30</t>
+  </si>
+  <si>
+    <t>[자바메타] 스토어 vee-validate 적용</t>
+  </si>
+  <si>
+    <t>[폴더] 12월 프로모션</t>
+  </si>
+  <si>
+    <t>13:30 ~ 18:00</t>
+  </si>
+  <si>
+    <t>13:30 ~ 16:30</t>
+  </si>
+  <si>
+    <t>16:30 ~ 18:00</t>
+  </si>
+  <si>
+    <t>[자바메타] 스토어 vuex -&gt; pinia 마이그레이션 작업</t>
+  </si>
+  <si>
+    <t>11.21 (화)</t>
+  </si>
+  <si>
+    <t>[자바메타] 어드민 주문 변경내역 디버깅</t>
+  </si>
+  <si>
+    <t>- 스토어 winston 설정 수정</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 fixed 요소 위치 개선</t>
+  </si>
+  <si>
+    <t>10:00 ~ 11:30</t>
+  </si>
+  <si>
+    <t>11:30 ~ 12:30</t>
+  </si>
+  <si>
+    <t>[자바메타] 스토어 검색창 엔터 키 버그 수정</t>
+  </si>
+  <si>
+    <t>[자바메타] 개선사항 반영</t>
+  </si>
+  <si>
+    <t>13:30 ~ 16:00</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 작업 이슈 검토 및 작업</t>
+  </si>
+  <si>
+    <t>16:00 ~ 18:00</t>
+  </si>
+  <si>
+    <t>11.22 (수)</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 레이아웃 검수</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 개선작업</t>
+  </si>
+  <si>
+    <t>13:30 ~ 14:00</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 브랜치 병합 작업</t>
+  </si>
+  <si>
+    <t>13:30 ~ 15:00</t>
+  </si>
+  <si>
+    <t>14:00 ~ 15:30</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 폰트 크기 반응형 적용</t>
+  </si>
+  <si>
+    <t>15:00 ~ 18:00</t>
+  </si>
+  <si>
+    <t>[FE][메타] 셀렉트 커스텀 라이브러리 R&amp;D</t>
+  </si>
+  <si>
+    <t>15:30 ~ 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	 [FE][메타] 원템플릿 레이아웃 검수</t>
+  </si>
+  <si>
+    <t>18:00 ~ 19:00</t>
+  </si>
+  <si>
+    <t>[자바메타] 어드민 등록/수정 페이지 저장 중 버튼 비활성화 처리</t>
+  </si>
+  <si>
+    <t>11.23 (목)</t>
+  </si>
+  <si>
+    <t>[자바메타] 스토어 vee-validate 테스트</t>
+  </si>
+  <si>
+    <t>[자바메타] 어드민 주문 변경내역 추가 개발 이슈 처리</t>
+  </si>
+  <si>
+    <t>[자바메타] 스토어/어드민 stylelint 적용</t>
+  </si>
+  <si>
+    <t>13:30 ~ 14:30</t>
+  </si>
+  <si>
+    <t>14:00 ~ 17:00</t>
+  </si>
+  <si>
+    <t>14:30 ~ 15:00</t>
+  </si>
+  <si>
+    <t>[자바메타] 작업 현황 회의</t>
+  </si>
+  <si>
+    <t>김승우, 김석진, 함준태</t>
+  </si>
+  <si>
+    <t>[자바메타] 어드민 개선사항 작업</t>
+  </si>
+  <si>
+    <t>15:00 ~ 16:00</t>
+  </si>
+  <si>
+    <t>[FE][메타] 원템플릿 레이아웃 파일 viewport 수정</t>
+  </si>
+  <si>
+    <t>16:00 ~ 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	 [FE][메타] 원템플릿 작업내역 정리</t>
+  </si>
+  <si>
+    <t>17:00 ~ 18:00</t>
+  </si>
+  <si>
+    <t>17:00 ~ 17:30</t>
+  </si>
+  <si>
+    <t>[FE] 폴더 업무 정리</t>
+  </si>
+  <si>
+    <t>17:30 ~ 18:00</t>
+  </si>
+  <si>
+    <t>11.24 (금)</t>
+  </si>
+  <si>
+    <t>[자바메타] 일정 및 히스토리 파악</t>
+  </si>
+  <si>
+    <t>임지원</t>
+  </si>
+  <si>
+    <t>전동엽, 윤보라, 전민주, 임지원</t>
+  </si>
+  <si>
+    <t>10:00 ~ 10:30</t>
+  </si>
+  <si>
+    <t>[자바메타] 스토어 개선건 작업</t>
+  </si>
+  <si>
+    <t>[FE] 프로젝트별 현황 파악</t>
+  </si>
+  <si>
+    <t>전동엽</t>
+  </si>
+  <si>
+    <t>[FE] 메타커머스 환경세팅 및 오류 수정</t>
+  </si>
+  <si>
+    <t>전민주</t>
+  </si>
+  <si>
+    <t>[FE] 폴더 히스토리 분석</t>
+  </si>
+  <si>
+    <t>윤보라</t>
+  </si>
+  <si>
+    <t>10:30 ~ 11:00</t>
+  </si>
+  <si>
+    <t>[자바메타] 일정회의</t>
+  </si>
+  <si>
+    <t>전동엽, 임지원</t>
   </si>
   <si>
     <t>11:00 ~ 12:00</t>
   </si>
   <si>
-    <t>[폴더운영] 11월 3주차_기획전 디자인</t>
-  </si>
-  <si>
-    <t>11:30 ~ 12:30</t>
-  </si>
-  <si>
-    <t>[GUI]주간회의+희망스튜디오 업무공유&amp;피드백</t>
+    <t>[푸드케어] CLE-514 이벤트 이슈대응</t>
+  </si>
+  <si>
+    <t>11:00 ~ 12:30</t>
+  </si>
+  <si>
+    <t>[FE] 메타커머스 소스 분석</t>
+  </si>
+  <si>
+    <t>[FE][메타] one-templete 화면검증</t>
   </si>
   <si>
     <t>12:00 ~ 12:30</t>
   </si>
   <si>
-    <t>[GUI] 팀미팅</t>
-  </si>
-  <si>
-    <t>[GUI]데일리 미팅</t>
-  </si>
-  <si>
-    <t>[GUI]팀미팅</t>
-  </si>
-  <si>
-    <t>13:30 ~ 14:30</t>
-  </si>
-  <si>
-    <t>[자바] 상품상세_naver 공유 추가, 어드민 에러페이지 디자인 추가</t>
-  </si>
-  <si>
-    <t>13:30 ~ 17:30</t>
-  </si>
-  <si>
-    <t>[희망스튜디오]약관동의 변경 및 힐링 테이블 수정 / 기획 문구 현행화</t>
-  </si>
-  <si>
-    <t>13:30 ~ 16:00</t>
-  </si>
-  <si>
-    <t>[java]MO_에셋 설정</t>
-  </si>
-  <si>
-    <t>13:30 ~ 16:30</t>
-  </si>
-  <si>
-    <t>[폴더운영] 11월 2/3주차_기획전 디자인</t>
-  </si>
-  <si>
-    <t>14:30 ~ 15:00</t>
-  </si>
-  <si>
-    <t>[GUI] 폰트weight_협의</t>
-  </si>
-  <si>
-    <t>15:00 ~ 18:30</t>
-  </si>
-  <si>
-    <t>[GUI]자바 컴포넌트_검증(MO헤더_properties, toggle)</t>
-  </si>
-  <si>
-    <t>16:00 ~ 18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[GUI]피그마 폰트 베리어블 </t>
-  </si>
-  <si>
-    <t>16:30 ~ 17:00</t>
-  </si>
-  <si>
-    <t>[달리-추가개발] 설계검토 (추가개발 v0.5)</t>
-  </si>
-  <si>
-    <t>17:00 ~ 17:30</t>
-  </si>
-  <si>
-    <t>[달리-추가개발] 설계 리뷰_추가개발 v0.5</t>
-  </si>
-  <si>
-    <t>17:30 ~ 18:00</t>
-  </si>
-  <si>
-    <t>[희망스튜디오]최종산출물 정리 및 전달완료</t>
-  </si>
-  <si>
-    <t>18:00 ~ 18:30</t>
-  </si>
-  <si>
-    <t>[GUI]이행과제_폰트 굵기 비교</t>
-  </si>
-  <si>
-    <t>11.07 (화)</t>
-  </si>
-  <si>
-    <t>09:30 ~ 12:30</t>
-  </si>
-  <si>
-    <t>[GUI]희망스튜디오 회고 작성</t>
-  </si>
-  <si>
-    <t>[GUI]피그마 베리어블 정리</t>
-  </si>
-  <si>
-    <t>[GUI] 팀업무 task정리 및 할당</t>
-  </si>
-  <si>
-    <t>10:30 ~ 12:30</t>
-  </si>
-  <si>
-    <t>[GUI]자바 컴포넌트_검증02(네이밍 규칙정의)</t>
-  </si>
-  <si>
-    <t>13:30 ~ 15:00</t>
-  </si>
-  <si>
-    <t>[GUI]자바 컴포넌트 피드백_쇼핑내역case(선민M)</t>
-  </si>
-  <si>
-    <t>14:30 ~ 18:00</t>
-  </si>
-  <si>
-    <t>[GUI]자바 컴포넌트_검증02 컴포넌트 반영</t>
-  </si>
-  <si>
-    <t>15:00 ~ 17:00</t>
-  </si>
-  <si>
-    <t>[GUI]희망스튜디오 투입시간 정리</t>
-  </si>
-  <si>
-    <t>[java]MO_쇼핑내역 에셋 설정</t>
-  </si>
-  <si>
-    <t>[희망스튜디오]로그인&gt;비회원기부하기 버튼 추가</t>
-  </si>
-  <si>
-    <t>17:30 ~ 18:30</t>
-  </si>
-  <si>
-    <t>11.08 (수)</t>
-  </si>
-  <si>
-    <t>09:30 ~ 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	 [폴더운영] 11월 2/3주차_기획전 디자인</t>
-  </si>
-  <si>
-    <t>09:30 ~ 11:30</t>
-  </si>
-  <si>
-    <t>[GUI]자바 컴포넌트_검증01 컴포넌트 반영(헤더, 아코디언)</t>
-  </si>
-  <si>
-    <t>10:30 ~ 11:00</t>
-  </si>
-  <si>
-    <t>[희망스튜디오]비회원 기부하기 버튼 수정</t>
-  </si>
-  <si>
-    <t>11:00 ~ 11:30</t>
-  </si>
-  <si>
-    <t>[달리] 오늘짠 추가개발 작업범위 리뷰</t>
-  </si>
-  <si>
-    <t>11:00 ~ 12:30</t>
-  </si>
-  <si>
-    <t>11:30 ~ 12:00</t>
-  </si>
-  <si>
-    <t>[희망스튜디오] 비회원주문_버튼 디자인 수정/협의</t>
-  </si>
-  <si>
-    <t>[달리-추가개발] 점주App 클레임 요청 기능 디자인</t>
+    <t>[푸드케어] CLE-503 고객센터 이슈대응</t>
   </si>
   <si>
     <t>13:30 ~ 17:00</t>
   </si>
   <si>
-    <t>[java]MO_쇼핑내역 반영</t>
-  </si>
-  <si>
-    <t>13:30 ~ 14:00</t>
-  </si>
-  <si>
-    <t>[폴더운영] 디자인_피드백</t>
-  </si>
-  <si>
-    <t>14:00 ~ 14:30</t>
-  </si>
-  <si>
-    <t>14:30 ~ 17:30</t>
-  </si>
-  <si>
-    <t>[GUI]자바 컴포넌트_검증02 컴포넌트 반영(네이밍수정), 업데이트</t>
-  </si>
-  <si>
-    <t>15:00 ~ 15:30</t>
-  </si>
-  <si>
-    <t>[GUI]배리어블 폰트 정리</t>
-  </si>
-  <si>
-    <t>15:00 ~ 18:00</t>
-  </si>
-  <si>
-    <t>15:30 ~ 16:30</t>
-  </si>
-  <si>
-    <t>[GUI]배리어블 폰트 이행계획 작성</t>
-  </si>
-  <si>
-    <t>16:30 ~ 18:30</t>
+    <t>[FE] 메타커머스 환경세팅 오류 수정</t>
+  </si>
+  <si>
+    <t>[FE] 메타커머스 one_template 화면 수정</t>
+  </si>
+  <si>
+    <t>13:30 ~ 15:30</t>
+  </si>
+  <si>
+    <t>14:30 ~ 15:30</t>
+  </si>
+  <si>
+    <t>[FE][메타] npm 오류 원인파악</t>
+  </si>
+  <si>
+    <t>15:30 ~ 17:00</t>
+  </si>
+  <si>
+    <t>[자바메타] v-deep 적용범위 및 동작원리 디버깅</t>
+  </si>
+  <si>
+    <t>15:30 ~ 18:30</t>
+  </si>
+  <si>
+    <t>[폴더] 결산세일 2차 디자인 작업</t>
   </si>
   <si>
     <t>17:00 ~ 18:30</t>
   </si>
   <si>
-    <t>[GUI]희망스튜디오 투입시간 정리_TF</t>
-  </si>
-  <si>
-    <t>[자바] 스토어 추가검증 및 수정요청</t>
-  </si>
-  <si>
-    <t>11.09 (목)</t>
-  </si>
-  <si>
-    <t>[GUI]자바 컴포넌트_검증(PC 기획전/검색/브랜드)</t>
-  </si>
-  <si>
-    <t>13:30 ~ 15:30</t>
-  </si>
-  <si>
-    <t>[GUI] 디자인회고 작성 (자바 어드민 디자인시스템)</t>
-  </si>
-  <si>
-    <t>13:30 ~ 18:00</t>
-  </si>
-  <si>
-    <t>[java]PC_에셋 설정</t>
-  </si>
-  <si>
-    <t>15:30 ~ 17:00</t>
-  </si>
-  <si>
-    <t>[GUI]java 컴포넌트 정리_수정요청 작성</t>
-  </si>
-  <si>
-    <t>16:00 ~ 16:30</t>
-  </si>
-  <si>
-    <t>[폴더] 브랜드사이트_일정협의(pm,fe)</t>
-  </si>
-  <si>
-    <t>17:00 ~ 18:00</t>
-  </si>
-  <si>
-    <t>전사 경영공유 참석</t>
-  </si>
-  <si>
-    <t>[GUI]희망스튜디오 회고 업데이트</t>
-  </si>
-  <si>
-    <t>[희망스튜디오] 기부금영수증 수정</t>
-  </si>
-  <si>
-    <t>11.10 (금)</t>
-  </si>
-  <si>
-    <t>[자바]스토어_재검증 및 수정요청</t>
-  </si>
-  <si>
-    <t>[폴더운영] 11월2/3주차 디자인 데이터 검수 및 회신</t>
-  </si>
-  <si>
-    <t>[java]mo,pc_에셋 수정</t>
-  </si>
-  <si>
-    <t>10:00 ~ 11:30</t>
-  </si>
-  <si>
-    <t>[GUI]디자인 회고(자바 어드민 디자인시스템) 추가작성</t>
-  </si>
-  <si>
-    <t>[자바]스토어_19금 case정의(MO)</t>
-  </si>
-  <si>
-    <t>[달리] 주간보고</t>
-  </si>
-  <si>
-    <t>[GUI]이커머스 부분별 트렌드 조사</t>
-  </si>
-  <si>
-    <t>[GUI] 기프로젝트 figma 파일 정리(자바/k글로벌)</t>
-  </si>
-  <si>
-    <t>[폴더운영] 작업의뢰서 양식 정리</t>
-  </si>
-  <si>
-    <t>[폴더] 주간보고</t>
-  </si>
-  <si>
-    <t>[전사]비상경영체제 상황공유\</t>
-  </si>
-  <si>
-    <t>[전사]비상경영체제 상황공유</t>
-  </si>
-  <si>
-    <t>15:00 ~ 16:00</t>
-  </si>
-  <si>
-    <t>전사 비상경영체제 상황공유의 건 참석</t>
-  </si>
-  <si>
-    <t>전사 비상경영체제 상황공유 회의</t>
-  </si>
-  <si>
-    <t>[GUI]일정미팅</t>
-  </si>
-  <si>
-    <t>15:30 ~ 16:00</t>
-  </si>
-  <si>
-    <t>[GUI] 비상경영체제 논의</t>
-  </si>
-  <si>
-    <t>16:00 ~ 17:00</t>
-  </si>
-  <si>
-    <t>[폴더운영] 이미지 용량 이슈 확인</t>
-  </si>
-  <si>
-    <t>[GUI]팀업무 체크 및 계획</t>
-  </si>
-  <si>
-    <t>16:30 ~ 17:30</t>
-  </si>
-  <si>
-    <t>[자바] 주간회의</t>
-  </si>
-  <si>
-    <t>[희망스튜디오]주간회의</t>
-  </si>
-  <si>
-    <t>[희망스튜디오] 주간보고</t>
-  </si>
-  <si>
-    <t>[자바] sns공유/로그인 검수</t>
-  </si>
-  <si>
-    <t>[GUI]이커머스 트렌드 조사</t>
+    <t>[자바메타] 스토어 pinia 마이그레이션</t>
   </si>
 </sst>
 </file>
@@ -454,7 +349,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="964">
+  <fonts count="955">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -506,42 +401,6 @@
       <name val="Gothic"/>
       <sz val="10.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Gothic"/>
-      <sz val="10.0"/>
     </font>
     <font>
       <name val="Gothic"/>
@@ -4370,7 +4229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="964">
+  <cellXfs count="955">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -7232,33 +7091,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="954" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="955" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="956" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="957" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="958" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="959" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="960" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="961" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="962" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="963" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -7353,19 +7185,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="23">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="23">
+      <c r="F3" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="25">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="24">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="25">
-        <v>17</v>
-      </c>
       <c r="H3" t="s" s="26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="27"/>
     </row>
@@ -7380,19 +7212,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="s" s="31">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="33">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="34">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="32">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s" s="33">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="34">
-        <v>20</v>
-      </c>
       <c r="H4" t="s" s="35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="36"/>
     </row>
@@ -7407,19 +7239,19 @@
         <v>10</v>
       </c>
       <c r="D5" t="s" s="40">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s" s="41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s" s="42">
         <v>13</v>
       </c>
       <c r="G5" t="s" s="43">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s" s="44">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="45"/>
     </row>
@@ -7434,19 +7266,19 @@
         <v>10</v>
       </c>
       <c r="D6" t="s" s="49">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="50">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s" s="51">
         <v>13</v>
       </c>
       <c r="G6" t="s" s="52">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s" s="53">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I6" s="54"/>
     </row>
@@ -7461,19 +7293,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="s" s="58">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="59">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="60">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="61">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="62">
         <v>25</v>
-      </c>
-      <c r="E7" t="s" s="59">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s" s="60">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s" s="61">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s" s="62">
-        <v>17</v>
       </c>
       <c r="I7" s="63"/>
     </row>
@@ -7488,10 +7320,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s" s="67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s" s="68">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s" s="69">
         <v>13</v>
@@ -7515,19 +7347,19 @@
         <v>10</v>
       </c>
       <c r="D9" t="s" s="76">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="77">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s" s="78">
         <v>13</v>
       </c>
       <c r="G9" t="s" s="79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s" s="80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="81"/>
     </row>
@@ -7542,19 +7374,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="s" s="85">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s" s="86">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s" s="87">
         <v>13</v>
       </c>
       <c r="G10" t="s" s="88">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s" s="89">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10" s="90"/>
     </row>
@@ -7569,10 +7401,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s" s="94">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s" s="95">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s" s="96">
         <v>13</v>
@@ -7596,10 +7428,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s" s="103">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s" s="104">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s" s="105">
         <v>13</v>
@@ -7623,19 +7455,19 @@
         <v>10</v>
       </c>
       <c r="D13" t="s" s="112">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s" s="113">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s" s="114">
         <v>13</v>
       </c>
       <c r="G13" t="s" s="115">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s" s="116">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="117"/>
     </row>
@@ -7650,19 +7482,19 @@
         <v>10</v>
       </c>
       <c r="D14" t="s" s="121">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s" s="122">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s" s="123">
         <v>13</v>
       </c>
       <c r="G14" t="s" s="124">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s" s="125">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I14" s="126"/>
     </row>
@@ -7677,19 +7509,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="s" s="130">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s" s="131">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s" s="132">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="133">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s" s="134">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I15" s="135"/>
     </row>
@@ -7704,19 +7536,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="s" s="139">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s" s="140">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s" s="141">
         <v>13</v>
       </c>
       <c r="G16" t="s" s="142">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s" s="143">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I16" s="144"/>
     </row>
@@ -7731,19 +7563,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="s" s="148">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s" s="149">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s" s="150">
         <v>13</v>
       </c>
       <c r="G17" t="s" s="151">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s" s="152">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I17" s="153"/>
     </row>
@@ -7758,19 +7590,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="s" s="157">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s" s="158">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s" s="159">
         <v>13</v>
       </c>
       <c r="G18" t="s" s="160">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s" s="161">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I18" s="162"/>
     </row>
@@ -7782,22 +7614,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="s" s="165">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s" s="166">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s" s="167">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s" s="168">
         <v>13</v>
       </c>
       <c r="G19" t="s" s="169">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s" s="170">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I19" s="171"/>
     </row>
@@ -7809,22 +7641,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="s" s="174">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s" s="175">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s" s="176">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s" s="177">
         <v>13</v>
       </c>
       <c r="G20" t="s" s="178">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s" s="179">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I20" s="180"/>
     </row>
@@ -7836,22 +7668,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="s" s="183">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s" s="184">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s" s="185">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s" s="186">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s" s="187">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s" s="188">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I21" s="189"/>
     </row>
@@ -7863,22 +7695,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s" s="192">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s" s="193">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s" s="194">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s" s="195">
         <v>13</v>
       </c>
       <c r="G22" t="s" s="196">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s" s="197">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I22" s="198"/>
     </row>
@@ -7890,22 +7722,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="s" s="201">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s" s="202">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s" s="203">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s" s="204">
         <v>13</v>
       </c>
       <c r="G23" t="s" s="205">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s" s="206">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I23" s="207"/>
     </row>
@@ -7917,22 +7749,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s" s="210">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="211">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s" s="212">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s" s="213">
         <v>13</v>
       </c>
       <c r="G24" t="s" s="214">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s" s="215">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I24" s="216"/>
     </row>
@@ -7944,22 +7776,22 @@
         <v>9</v>
       </c>
       <c r="C25" t="s" s="219">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s" s="220">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s" s="221">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s" s="222">
         <v>13</v>
       </c>
       <c r="G25" t="s" s="223">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s" s="224">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I25" s="225"/>
     </row>
@@ -7971,22 +7803,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="s" s="228">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s" s="229">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s" s="230">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s" s="231">
         <v>13</v>
       </c>
       <c r="G26" t="s" s="232">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s" s="233">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I26" s="234"/>
     </row>
@@ -7998,22 +7830,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="s" s="237">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s" s="238">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s" s="239">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s" s="240">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s" s="241">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s" s="242">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I27" s="243"/>
     </row>
@@ -8025,22 +7857,22 @@
         <v>9</v>
       </c>
       <c r="C28" t="s" s="246">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s" s="247">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s" s="248">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s" s="249">
         <v>13</v>
       </c>
       <c r="G28" t="s" s="250">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s" s="251">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="252"/>
     </row>
@@ -8052,22 +7884,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="s" s="255">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s" s="256">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s" s="257">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s" s="258">
         <v>13</v>
       </c>
       <c r="G29" t="s" s="259">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s" s="260">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I29" s="261"/>
     </row>
@@ -8079,22 +7911,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s" s="264">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s" s="265">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s" s="266">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s" s="267">
         <v>13</v>
       </c>
       <c r="G30" t="s" s="268">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s" s="269">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I30" s="270"/>
     </row>
@@ -8106,22 +7938,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="s" s="273">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s" s="274">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s" s="275">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s" s="276">
         <v>13</v>
       </c>
       <c r="G31" t="s" s="277">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s" s="278">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I31" s="279"/>
     </row>
@@ -8133,22 +7965,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="s" s="282">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s" s="283">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s" s="284">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="285">
         <v>13</v>
       </c>
       <c r="G32" t="s" s="286">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s" s="287">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I32" s="288"/>
     </row>
@@ -8160,22 +7992,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="s" s="291">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s" s="292">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s" s="293">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s" s="294">
         <v>13</v>
       </c>
       <c r="G33" t="s" s="295">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s" s="296">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I33" s="297"/>
     </row>
@@ -8187,13 +8019,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s" s="300">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s" s="301">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s" s="302">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="303">
         <v>13</v>
@@ -8214,22 +8046,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s" s="309">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s" s="310">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s" s="311">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s" s="312">
         <v>13</v>
       </c>
       <c r="G35" t="s" s="313">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s" s="314">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I35" s="315"/>
     </row>
@@ -8241,22 +8073,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s" s="318">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s" s="319">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s" s="320">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s" s="321">
         <v>13</v>
       </c>
       <c r="G36" t="s" s="322">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s" s="323">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" s="324"/>
     </row>
@@ -8268,22 +8100,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s" s="327">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s" s="328">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s" s="329">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="330">
         <v>13</v>
       </c>
       <c r="G37" t="s" s="331">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s" s="332">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I37" s="333"/>
     </row>
@@ -8295,22 +8127,22 @@
         <v>9</v>
       </c>
       <c r="C38" t="s" s="336">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s" s="337">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s" s="338">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s" s="339">
         <v>13</v>
       </c>
       <c r="G38" t="s" s="340">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="341">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I38" s="342"/>
     </row>
@@ -8322,22 +8154,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="s" s="345">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s" s="346">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s" s="347">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s" s="348">
         <v>13</v>
       </c>
       <c r="G39" t="s" s="349">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="350">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I39" s="351"/>
     </row>
@@ -8349,22 +8181,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="s" s="354">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s" s="355">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s" s="356">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s" s="357">
         <v>13</v>
       </c>
       <c r="G40" t="s" s="358">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s" s="359">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I40" s="360"/>
     </row>
@@ -8376,22 +8208,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s" s="363">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s" s="364">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s" s="365">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s" s="366">
         <v>13</v>
       </c>
       <c r="G41" t="s" s="367">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s" s="368">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" s="369"/>
     </row>
@@ -8403,13 +8235,13 @@
         <v>9</v>
       </c>
       <c r="C42" t="s" s="372">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s" s="373">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s" s="374">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s" s="375">
         <v>13</v>
@@ -8430,13 +8262,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="s" s="381">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s" s="382">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s" s="383">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s" s="384">
         <v>13</v>
@@ -8457,13 +8289,13 @@
         <v>9</v>
       </c>
       <c r="C44" t="s" s="390">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s" s="391">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s" s="392">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s" s="393">
         <v>13</v>
@@ -8472,7 +8304,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="395">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I44" s="396"/>
     </row>
@@ -8484,22 +8316,22 @@
         <v>9</v>
       </c>
       <c r="C45" t="s" s="399">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s" s="400">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s" s="401">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s" s="402">
         <v>13</v>
       </c>
       <c r="G45" t="s" s="403">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s" s="404">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I45" s="405"/>
     </row>
@@ -8511,22 +8343,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s" s="408">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s" s="409">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s" s="410">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s" s="411">
         <v>13</v>
       </c>
       <c r="G46" t="s" s="412">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s" s="413">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I46" s="414"/>
     </row>
@@ -8538,13 +8370,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="s" s="417">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s" s="418">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s" s="419">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s" s="420">
         <v>13</v>
@@ -8565,22 +8397,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="s" s="426">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s" s="427">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s" s="428">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s" s="429">
         <v>13</v>
       </c>
       <c r="G48" t="s" s="430">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H48" t="s" s="431">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I48" s="432"/>
     </row>
@@ -8592,22 +8424,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="s" s="435">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s" s="436">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s" s="437">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s" s="438">
         <v>13</v>
       </c>
       <c r="G49" t="s" s="439">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s" s="440">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I49" s="441"/>
     </row>
@@ -8619,22 +8451,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="s" s="444">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s" s="445">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s" s="446">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s" s="447">
         <v>13</v>
       </c>
       <c r="G50" t="s" s="448">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s" s="449">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I50" s="450"/>
     </row>
@@ -8646,22 +8478,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="s" s="453">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s" s="454">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s" s="455">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s" s="456">
         <v>13</v>
       </c>
       <c r="G51" t="s" s="457">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="458">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I51" s="459"/>
     </row>
@@ -8673,22 +8505,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="s" s="462">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s" s="463">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s" s="464">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s" s="465">
         <v>13</v>
       </c>
       <c r="G52" t="s" s="466">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s" s="467">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I52" s="468"/>
     </row>
@@ -8700,22 +8532,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="s" s="471">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s" s="472">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s" s="473">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s" s="474">
         <v>13</v>
       </c>
       <c r="G53" t="s" s="475">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s" s="476">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="477"/>
     </row>
@@ -8727,22 +8559,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="s" s="480">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s" s="481">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s" s="482">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s" s="483">
         <v>13</v>
       </c>
       <c r="G54" t="s" s="484">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s" s="485">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I54" s="486"/>
     </row>
@@ -8754,22 +8586,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="s" s="489">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s" s="490">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s" s="491">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="492">
         <v>13</v>
       </c>
       <c r="G55" t="s" s="493">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s" s="494">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I55" s="495"/>
     </row>
@@ -8781,22 +8613,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s" s="498">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s" s="499">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s" s="500">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s" s="501">
         <v>13</v>
       </c>
       <c r="G56" t="s" s="502">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s" s="503">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I56" s="504"/>
     </row>
@@ -8808,22 +8640,22 @@
         <v>9</v>
       </c>
       <c r="C57" t="s" s="507">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s" s="508">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s" s="509">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s" s="510">
         <v>13</v>
       </c>
       <c r="G57" t="s" s="511">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s" s="512">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I57" s="513"/>
     </row>
@@ -8835,22 +8667,22 @@
         <v>9</v>
       </c>
       <c r="C58" t="s" s="516">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D58" t="s" s="517">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s" s="518">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s" s="519">
         <v>13</v>
       </c>
       <c r="G58" t="s" s="520">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s" s="521">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I58" s="522"/>
     </row>
@@ -8862,22 +8694,22 @@
         <v>9</v>
       </c>
       <c r="C59" t="s" s="525">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s" s="526">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s" s="527">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s" s="528">
         <v>13</v>
       </c>
       <c r="G59" t="s" s="529">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s" s="530">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I59" s="531"/>
     </row>
@@ -8889,22 +8721,22 @@
         <v>9</v>
       </c>
       <c r="C60" t="s" s="534">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s" s="535">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s" s="536">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s" s="537">
         <v>13</v>
       </c>
       <c r="G60" t="s" s="538">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s" s="539">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="540"/>
     </row>
@@ -8916,22 +8748,22 @@
         <v>9</v>
       </c>
       <c r="C61" t="s" s="543">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s" s="544">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s" s="545">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s" s="546">
         <v>13</v>
       </c>
       <c r="G61" t="s" s="547">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s" s="548">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I61" s="549"/>
     </row>
@@ -8943,22 +8775,22 @@
         <v>9</v>
       </c>
       <c r="C62" t="s" s="552">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s" s="553">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s" s="554">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s" s="555">
         <v>13</v>
       </c>
       <c r="G62" t="s" s="556">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s" s="557">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I62" s="558"/>
     </row>
@@ -8970,10 +8802,10 @@
         <v>9</v>
       </c>
       <c r="C63" t="s" s="561">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s" s="562">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s" s="563">
         <v>40</v>
@@ -8997,22 +8829,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s" s="570">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s" s="571">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s" s="572">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s" s="573">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s" s="574">
         <v>18</v>
       </c>
-      <c r="E64" t="s" s="572">
-        <v>75</v>
-      </c>
-      <c r="F64" t="s" s="573">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s" s="574">
-        <v>14</v>
-      </c>
       <c r="H64" t="s" s="575">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I64" s="576"/>
     </row>
@@ -9024,22 +8856,22 @@
         <v>9</v>
       </c>
       <c r="C65" t="s" s="579">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s" s="580">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s" s="581">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F65" t="s" s="582">
         <v>13</v>
       </c>
       <c r="G65" t="s" s="583">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s" s="584">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I65" s="585"/>
     </row>
@@ -9051,22 +8883,22 @@
         <v>9</v>
       </c>
       <c r="C66" t="s" s="588">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s" s="589">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s" s="590">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s" s="591">
         <v>13</v>
       </c>
       <c r="G66" t="s" s="592">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s" s="593">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I66" s="594"/>
     </row>
@@ -9078,22 +8910,22 @@
         <v>9</v>
       </c>
       <c r="C67" t="s" s="597">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s" s="598">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s" s="599">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F67" t="s" s="600">
         <v>13</v>
       </c>
       <c r="G67" t="s" s="601">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s" s="602">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I67" s="603"/>
     </row>
@@ -9105,22 +8937,22 @@
         <v>9</v>
       </c>
       <c r="C68" t="s" s="606">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s" s="607">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s" s="608">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F68" t="s" s="609">
         <v>13</v>
       </c>
       <c r="G68" t="s" s="610">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s" s="611">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I68" s="612"/>
     </row>
@@ -9132,22 +8964,22 @@
         <v>9</v>
       </c>
       <c r="C69" t="s" s="615">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s" s="616">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E69" t="s" s="617">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s" s="618">
         <v>13</v>
       </c>
       <c r="G69" t="s" s="619">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s" s="620">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I69" s="621"/>
     </row>
@@ -9159,22 +8991,22 @@
         <v>9</v>
       </c>
       <c r="C70" t="s" s="624">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s" s="625">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s" s="626">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s" s="627">
         <v>13</v>
       </c>
       <c r="G70" t="s" s="628">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s" s="629">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="630"/>
     </row>
@@ -9186,22 +9018,22 @@
         <v>9</v>
       </c>
       <c r="C71" t="s" s="633">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s" s="634">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E71" t="s" s="635">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s" s="636">
         <v>13</v>
       </c>
       <c r="G71" t="s" s="637">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s" s="638">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" s="639"/>
     </row>
@@ -9213,13 +9045,13 @@
         <v>9</v>
       </c>
       <c r="C72" t="s" s="642">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s" s="643">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E72" t="s" s="644">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s" s="645">
         <v>13</v>
@@ -9240,22 +9072,22 @@
         <v>9</v>
       </c>
       <c r="C73" t="s" s="651">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s" s="652">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s" s="653">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s" s="654">
         <v>13</v>
       </c>
       <c r="G73" t="s" s="655">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s" s="656">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I73" s="657"/>
     </row>
@@ -9267,22 +9099,22 @@
         <v>9</v>
       </c>
       <c r="C74" t="s" s="660">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s" s="661">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="E74" t="s" s="662">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F74" t="s" s="663">
         <v>13</v>
       </c>
       <c r="G74" t="s" s="664">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s" s="665">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I74" s="666"/>
     </row>
@@ -9294,22 +9126,22 @@
         <v>9</v>
       </c>
       <c r="C75" t="s" s="669">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s" s="670">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E75" t="s" s="671">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s" s="672">
         <v>13</v>
       </c>
       <c r="G75" t="s" s="673">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s" s="674">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I75" s="675"/>
     </row>
@@ -9321,22 +9153,22 @@
         <v>9</v>
       </c>
       <c r="C76" t="s" s="678">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s" s="679">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s" s="680">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s" s="681">
         <v>13</v>
       </c>
       <c r="G76" t="s" s="682">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s" s="683">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I76" s="684"/>
     </row>
@@ -9348,22 +9180,22 @@
         <v>9</v>
       </c>
       <c r="C77" t="s" s="687">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s" s="688">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E77" t="s" s="689">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s" s="690">
         <v>13</v>
       </c>
       <c r="G77" t="s" s="691">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s" s="692">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I77" s="693"/>
     </row>
@@ -9375,22 +9207,22 @@
         <v>9</v>
       </c>
       <c r="C78" t="s" s="696">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s" s="697">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s" s="698">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F78" t="s" s="699">
         <v>13</v>
       </c>
       <c r="G78" t="s" s="700">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s" s="701">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I78" s="702"/>
     </row>
@@ -9402,22 +9234,22 @@
         <v>9</v>
       </c>
       <c r="C79" t="s" s="705">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s" s="706">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s" s="707">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F79" t="s" s="708">
         <v>13</v>
       </c>
       <c r="G79" t="s" s="709">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s" s="710">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I79" s="711"/>
     </row>
@@ -9429,22 +9261,22 @@
         <v>9</v>
       </c>
       <c r="C80" t="s" s="714">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s" s="715">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E80" t="s" s="716">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F80" t="s" s="717">
         <v>13</v>
       </c>
       <c r="G80" t="s" s="718">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" t="s" s="719">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80" s="720"/>
     </row>
@@ -9456,22 +9288,22 @@
         <v>9</v>
       </c>
       <c r="C81" t="s" s="723">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s" s="724">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E81" t="s" s="725">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s" s="726">
         <v>13</v>
       </c>
       <c r="G81" t="s" s="727">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H81" t="s" s="728">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I81" s="729"/>
     </row>
@@ -9483,22 +9315,22 @@
         <v>9</v>
       </c>
       <c r="C82" t="s" s="732">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s" s="733">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s" s="734">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F82" t="s" s="735">
         <v>13</v>
       </c>
       <c r="G82" t="s" s="736">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H82" t="s" s="737">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I82" s="738"/>
     </row>
@@ -9510,22 +9342,22 @@
         <v>9</v>
       </c>
       <c r="C83" t="s" s="741">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D83" t="s" s="742">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s" s="743">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s" s="744">
         <v>13</v>
       </c>
       <c r="G83" t="s" s="745">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s" s="746">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I83" s="747"/>
     </row>
@@ -9537,22 +9369,22 @@
         <v>9</v>
       </c>
       <c r="C84" t="s" s="750">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D84" t="s" s="751">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s" s="752">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F84" t="s" s="753">
         <v>13</v>
       </c>
       <c r="G84" t="s" s="754">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s" s="755">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I84" s="756"/>
     </row>
@@ -9564,22 +9396,22 @@
         <v>9</v>
       </c>
       <c r="C85" t="s" s="759">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s" s="760">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E85" t="s" s="761">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s" s="762">
         <v>13</v>
       </c>
       <c r="G85" t="s" s="763">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s" s="764">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I85" s="765"/>
     </row>
@@ -9591,22 +9423,22 @@
         <v>9</v>
       </c>
       <c r="C86" t="s" s="768">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D86" t="s" s="769">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s" s="770">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F86" t="s" s="771">
         <v>13</v>
       </c>
       <c r="G86" t="s" s="772">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="773">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I86" s="774"/>
     </row>
@@ -9618,22 +9450,22 @@
         <v>9</v>
       </c>
       <c r="C87" t="s" s="777">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s" s="778">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E87" t="s" s="779">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s" s="780">
         <v>13</v>
       </c>
       <c r="G87" t="s" s="781">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="782">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I87" s="783"/>
     </row>
@@ -9645,22 +9477,22 @@
         <v>9</v>
       </c>
       <c r="C88" t="s" s="786">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D88" t="s" s="787">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s" s="788">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s" s="789">
         <v>13</v>
       </c>
       <c r="G88" t="s" s="790">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="791">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I88" s="792"/>
     </row>
@@ -9672,22 +9504,22 @@
         <v>9</v>
       </c>
       <c r="C89" t="s" s="795">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D89" t="s" s="796">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s" s="797">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F89" t="s" s="798">
         <v>13</v>
       </c>
       <c r="G89" t="s" s="799">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H89" t="s" s="800">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I89" s="801"/>
     </row>
@@ -9699,22 +9531,22 @@
         <v>9</v>
       </c>
       <c r="C90" t="s" s="804">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D90" t="s" s="805">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s" s="806">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F90" t="s" s="807">
         <v>13</v>
       </c>
       <c r="G90" t="s" s="808">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H90" t="s" s="809">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I90" s="810"/>
     </row>
@@ -9726,22 +9558,22 @@
         <v>9</v>
       </c>
       <c r="C91" t="s" s="813">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s" s="814">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E91" t="s" s="815">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F91" t="s" s="816">
         <v>13</v>
       </c>
       <c r="G91" t="s" s="817">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="818">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I91" s="819"/>
     </row>
@@ -9753,22 +9585,22 @@
         <v>9</v>
       </c>
       <c r="C92" t="s" s="822">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D92" t="s" s="823">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s" s="824">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F92" t="s" s="825">
         <v>13</v>
       </c>
       <c r="G92" t="s" s="826">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H92" t="s" s="827">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I92" s="828"/>
     </row>
@@ -9780,22 +9612,22 @@
         <v>9</v>
       </c>
       <c r="C93" t="s" s="831">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D93" t="s" s="832">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s" s="833">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="F93" t="s" s="834">
         <v>13</v>
       </c>
       <c r="G93" t="s" s="835">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s" s="836">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I93" s="837"/>
     </row>
@@ -9807,22 +9639,22 @@
         <v>9</v>
       </c>
       <c r="C94" t="s" s="840">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s" s="841">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s" s="842">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F94" t="s" s="843">
         <v>13</v>
       </c>
       <c r="G94" t="s" s="844">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s" s="845">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I94" s="846"/>
     </row>
@@ -9834,22 +9666,22 @@
         <v>9</v>
       </c>
       <c r="C95" t="s" s="849">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D95" t="s" s="850">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="E95" t="s" s="851">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="F95" t="s" s="852">
         <v>13</v>
       </c>
       <c r="G95" t="s" s="853">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s" s="854">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I95" s="855"/>
     </row>
@@ -9861,22 +9693,22 @@
         <v>9</v>
       </c>
       <c r="C96" t="s" s="858">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s" s="859">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E96" t="s" s="860">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F96" t="s" s="861">
         <v>13</v>
       </c>
       <c r="G96" t="s" s="862">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="863">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I96" s="864"/>
     </row>
@@ -9888,22 +9720,22 @@
         <v>9</v>
       </c>
       <c r="C97" t="s" s="867">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s" s="868">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s" s="869">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="F97" t="s" s="870">
         <v>13</v>
       </c>
       <c r="G97" t="s" s="871">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H97" t="s" s="872">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="I97" s="873"/>
     </row>
@@ -9915,22 +9747,22 @@
         <v>9</v>
       </c>
       <c r="C98" t="s" s="876">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D98" t="s" s="877">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s" s="878">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F98" t="s" s="879">
         <v>13</v>
       </c>
       <c r="G98" t="s" s="880">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s" s="881">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I98" s="882"/>
     </row>
@@ -9942,22 +9774,22 @@
         <v>9</v>
       </c>
       <c r="C99" t="s" s="885">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D99" t="s" s="886">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s" s="887">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F99" t="s" s="888">
         <v>13</v>
       </c>
       <c r="G99" t="s" s="889">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="890">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I99" s="891"/>
     </row>
@@ -9969,22 +9801,22 @@
         <v>9</v>
       </c>
       <c r="C100" t="s" s="894">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D100" t="s" s="895">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E100" t="s" s="896">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F100" t="s" s="897">
         <v>13</v>
       </c>
       <c r="G100" t="s" s="898">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="899">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I100" s="900"/>
     </row>
@@ -9996,22 +9828,22 @@
         <v>9</v>
       </c>
       <c r="C101" t="s" s="903">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D101" t="s" s="904">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E101" t="s" s="905">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F101" t="s" s="906">
         <v>13</v>
       </c>
       <c r="G101" t="s" s="907">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H101" t="s" s="908">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I101" s="909"/>
     </row>
@@ -10023,22 +9855,22 @@
         <v>9</v>
       </c>
       <c r="C102" t="s" s="912">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s" s="913">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E102" t="s" s="914">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F102" t="s" s="915">
         <v>13</v>
       </c>
       <c r="G102" t="s" s="916">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="H102" t="s" s="917">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I102" s="918"/>
     </row>
@@ -10050,22 +9882,22 @@
         <v>9</v>
       </c>
       <c r="C103" t="s" s="921">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D103" t="s" s="922">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E103" t="s" s="923">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="F103" t="s" s="924">
         <v>13</v>
       </c>
       <c r="G103" t="s" s="925">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s" s="926">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I103" s="927"/>
     </row>
@@ -10077,22 +9909,22 @@
         <v>9</v>
       </c>
       <c r="C104" t="s" s="930">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D104" t="s" s="931">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s" s="932">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="F104" t="s" s="933">
         <v>13</v>
       </c>
       <c r="G104" t="s" s="934">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H104" t="s" s="935">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I104" s="936"/>
     </row>
@@ -10104,22 +9936,22 @@
         <v>9</v>
       </c>
       <c r="C105" t="s" s="939">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D105" t="s" s="940">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E105" t="s" s="941">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="F105" t="s" s="942">
         <v>13</v>
       </c>
       <c r="G105" t="s" s="943">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="H105" t="s" s="944">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I105" s="945"/>
     </row>
@@ -10131,51 +9963,24 @@
         <v>9</v>
       </c>
       <c r="C106" t="s" s="948">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D106" t="s" s="949">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E106" t="s" s="950">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F106" t="s" s="951">
         <v>13</v>
       </c>
       <c r="G106" t="s" s="952">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H106" t="s" s="953">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I106" s="954"/>
-    </row>
-    <row r="107" ht="17.5" customHeight="true">
-      <c r="A107" t="n" s="955">
-        <v>106.0</v>
-      </c>
-      <c r="B107" t="s" s="956">
-        <v>9</v>
-      </c>
-      <c r="C107" t="s" s="957">
-        <v>116</v>
-      </c>
-      <c r="D107" t="s" s="958">
-        <v>72</v>
-      </c>
-      <c r="E107" t="s" s="959">
-        <v>144</v>
-      </c>
-      <c r="F107" t="s" s="960">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s" s="961">
-        <v>22</v>
-      </c>
-      <c r="H107" t="s" s="962">
-        <v>22</v>
-      </c>
-      <c r="I107" s="963"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
